--- a/bycode2018heb.xlsx
+++ b/bycode2018heb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amjad Nassar\PycharmProjects\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE615C5-3907-4E25-9D1E-877D42205DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8394220B-9548-446A-8334-C3C4FCDCCB30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4892,9 +4892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1483"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -89700,12 +89700,50 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <PublishingRollupImage xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2019-08-31T21:00:00+00:00</ArticleStartDate>
+    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <CbsPublishingDocSubject xmlns="f37fff55-d014-472b-b062-823f736a4040">יישובים בישראל- קובצי יישובים, 2018-2003</CbsPublishingDocSubject>
+    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040">קובצי יישובים אוכלוסייתם וסמליהם</CbsPublishingDocChapter>
+    <CbsDataSource xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <VariationsItemGroupID xmlns="http://schemas.microsoft.com/sharepoint/v3">bec28755-53c1-497f-8a42-5114c0bcd774</VariationsItemGroupID>
+    <CbsOrderField xmlns="f37fff55-d014-472b-b062-823f736a4040">1</CbsOrderField>
+    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <badce114fb994f27a777030e336d1efa xmlns="f37fff55-d014-472b-b062-823f736a4040">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">תפרוסת גאוגרפית</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">42494796-41ed-4e4a-95c2-c33df452209e</TermId>
+        </TermInfo>
+      </Terms>
+    </badce114fb994f27a777030e336d1efa>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+    <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
+    <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040">/he/publications/Pages/2019/יישובים-בישראל.aspx</CbsDocArticleVariationRelUrl>
+    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2019-09-01T10:00:00+00:00</CbsDataPublishDate>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90002,56 +90040,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CbsHide xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <PublishingRollupImage xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsPublishingDocSubjectEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <ArticleStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2019-08-31T21:00:00+00:00</ArticleStartDate>
-    <eWaveListOrderValue xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <CbsPublishingDocSubject xmlns="f37fff55-d014-472b-b062-823f736a4040">יישובים בישראל- קובצי יישובים, 2018-2003</CbsPublishingDocSubject>
-    <CbsDocArticleVariationRelUrlEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocChapterEng xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsPublishingDocChapter xmlns="f37fff55-d014-472b-b062-823f736a4040">קובצי יישובים אוכלוסייתם וסמליהם</CbsPublishingDocChapter>
-    <CbsDataSource xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <VariationsItemGroupID xmlns="http://schemas.microsoft.com/sharepoint/v3">bec28755-53c1-497f-8a42-5114c0bcd774</VariationsItemGroupID>
-    <CbsOrderField xmlns="f37fff55-d014-472b-b062-823f736a4040">1</CbsOrderField>
-    <CbsEnglishTitle xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <badce114fb994f27a777030e336d1efa xmlns="f37fff55-d014-472b-b062-823f736a4040">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">תפרוסת גאוגרפית</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">42494796-41ed-4e4a-95c2-c33df452209e</TermId>
-        </TermInfo>
-      </Terms>
-    </badce114fb994f27a777030e336d1efa>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-    <CbsMadadPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040" xsi:nil="true"/>
-    <CbsDocArticleVariationRelUrl xmlns="f37fff55-d014-472b-b062-823f736a4040">/he/publications/Pages/2019/יישובים-בישראל.aspx</CbsDocArticleVariationRelUrl>
-    <CbsDataPublishDate xmlns="f37fff55-d014-472b-b062-823f736a4040">2019-09-01T10:00:00+00:00</CbsDataPublishDate>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7113AA-D697-48D2-BDCD-DE15223432BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1F85C01-8C81-4580-B811-195C167FD177}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f37fff55-d014-472b-b062-823f736a4040"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -90076,12 +90079,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1F85C01-8C81-4580-B811-195C167FD177}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7113AA-D697-48D2-BDCD-DE15223432BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f37fff55-d014-472b-b062-823f736a4040"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>